--- a/biology/Botanique/Sérapias_en_cœur/Sérapias_en_cœur.xlsx
+++ b/biology/Botanique/Sérapias_en_cœur/Sérapias_en_cœur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_en_c%C5%93ur</t>
+          <t>Sérapias_en_cœur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serapias cordigera
 Le Sérapias en cœur (Serapias cordigera) est une espèce de plante herbacée pérenne de la famille des Orchidacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_en_c%C5%93ur</t>
+          <t>Sérapias_en_cœur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante mesurant de 20 à 50 cm. La base de la tige feuillée est maculée de pourpre. Les fleurs sombres varient de 3 à 10 par tige. Le grand labelle atteint environ 35 mm de long et est garni, à sa base, de 2 lames sombres divergentes.
 Chez les Serapias (et les Epipactis), le labelle est composé de 2 parties successives : épichile et hypochile.
-Dans le cas de Serapias cordigera, la partie externe du labelle, l'épichile, en forme de cœur est assez plat, dirigé vers le bas ; il est aussi large que la partie interne du labelle, l'hypochile [1](étalé).
+Dans le cas de Serapias cordigera, la partie externe du labelle, l'épichile, en forme de cœur est assez plat, dirigé vers le bas ; il est aussi large que la partie interne du labelle, l'hypochile (étalé).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_en_c%C5%93ur</t>
+          <t>Sérapias_en_cœur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Période de floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison en mai et juin.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_en_c%C5%93ur</t>
+          <t>Sérapias_en_cœur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce que l'on rencontre sur des substrats acides ; sur des pelouses mésophiles et anciennes terrasses de culture, entretenues par une fauche annuelle.  
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_en_c%C5%93ur</t>
+          <t>Sérapias_en_cœur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce est inscrite[2] sur 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette espèce est inscrite sur 
 Liste rouge européenne de l’UICN (2011) "Préoccupation mineure (espèce pour laquelle le risque de disparition de métropole est faible)"
 Liste rouge de la flore vasculaire de France métropolitaine (2019)
 Liste rouge de la flore vasculaire d'Aquitaine (2018)
